--- a/BPS_FH_Dataset/29/phrases.xlsx
+++ b/BPS_FH_Dataset/29/phrases.xlsx
@@ -1,20 +1,21 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" mc:Ignorable="x15">
-  <fileVersion appName="xl" lastEdited="6" lowestEdited="6" rupBuild="14420"/>
-  <workbookPr defaultThemeVersion="153222"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="20394"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Desktop\Data Set\BPS Dataset\29 x\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\iis519\Documents\GitHub\functional-harmony\BPS_FH_Dataset\29\"/>
     </mc:Choice>
   </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{91F583AB-4D7E-4E97-98B0-C5B604367917}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="12390" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="工作表1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="152511"/>
+  <calcPr calcId="191029"/>
   <extLst>
     <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
@@ -501,7 +502,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="12"/>
@@ -863,19 +864,19 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:E173"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A146" workbookViewId="0">
-      <selection activeCell="B173" sqref="B173"/>
+    <sheetView tabSelected="1" topLeftCell="A62" workbookViewId="0">
+      <selection activeCell="C75" sqref="C75"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="17" x14ac:dyDescent="0.4"/>
   <cols>
     <col min="1" max="5" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A1" s="1">
         <v>-0.5</v>
       </c>
@@ -892,7 +893,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A2" s="1">
         <v>15</v>
       </c>
@@ -909,7 +910,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A3" s="1">
         <v>19</v>
       </c>
@@ -926,7 +927,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A4" s="1">
         <v>23</v>
       </c>
@@ -943,7 +944,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A5" s="1">
         <v>31</v>
       </c>
@@ -960,7 +961,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="6" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A6" s="1">
         <v>35</v>
       </c>
@@ -977,7 +978,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="7" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A7" s="1">
         <v>39</v>
       </c>
@@ -994,7 +995,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="8" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A8" s="1">
         <v>48</v>
       </c>
@@ -1011,7 +1012,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="9" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A9" s="1">
         <v>56</v>
       </c>
@@ -1028,7 +1029,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A10" s="1">
         <v>64</v>
       </c>
@@ -1045,7 +1046,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="11" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A11" s="1">
         <v>72</v>
       </c>
@@ -1062,7 +1063,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A12" s="1">
         <v>80</v>
       </c>
@@ -1079,7 +1080,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A13" s="1">
         <v>88</v>
       </c>
@@ -1096,7 +1097,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A14" s="1">
         <v>96</v>
       </c>
@@ -1113,7 +1114,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A15" s="1">
         <v>135.5</v>
       </c>
@@ -1130,7 +1131,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A16" s="1">
         <v>151.5</v>
       </c>
@@ -1147,7 +1148,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="17" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A17" s="1">
         <v>184</v>
       </c>
@@ -1164,7 +1165,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="18" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A18" s="1">
         <v>200</v>
       </c>
@@ -1181,7 +1182,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="19" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A19" s="1">
         <v>217</v>
       </c>
@@ -1198,7 +1199,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="20" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A20" s="1">
         <v>233</v>
       </c>
@@ -1215,7 +1216,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="21" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A21" s="1">
         <v>247</v>
       </c>
@@ -1232,7 +1233,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="22" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A22" s="1">
         <v>251</v>
       </c>
@@ -1249,7 +1250,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="23" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A23" s="1">
         <v>255</v>
       </c>
@@ -1266,7 +1267,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="24" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A24" s="1">
         <v>263</v>
       </c>
@@ -1283,7 +1284,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="25" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A25" s="1">
         <v>267</v>
       </c>
@@ -1300,9 +1301,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="26" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A26" s="1">
-        <v>281</v>
+        <v>271</v>
       </c>
       <c r="B26" s="1">
         <v>277</v>
@@ -1317,7 +1318,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="27" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A27" s="1">
         <v>277</v>
       </c>
@@ -1334,7 +1335,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="28" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A28" s="1">
         <v>281</v>
       </c>
@@ -1351,7 +1352,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="29" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A29" s="1">
         <v>285</v>
       </c>
@@ -1368,7 +1369,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="30" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A30" s="1">
         <v>289</v>
       </c>
@@ -1385,7 +1386,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="31" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A31" s="1">
         <v>296</v>
       </c>
@@ -1402,7 +1403,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="32" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A32" s="1">
         <v>304</v>
       </c>
@@ -1419,7 +1420,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="33" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A33" s="1">
         <v>312</v>
       </c>
@@ -1436,7 +1437,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="34" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A34" s="1">
         <v>320</v>
       </c>
@@ -1453,7 +1454,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="35" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A35" s="1">
         <v>328</v>
       </c>
@@ -1470,7 +1471,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="36" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A36" s="1">
         <v>336</v>
       </c>
@@ -1487,7 +1488,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="37" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A37" s="1">
         <v>344</v>
       </c>
@@ -1504,7 +1505,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="38" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="38" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A38" s="1">
         <v>352</v>
       </c>
@@ -1521,7 +1522,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="39" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="39" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A39" s="1">
         <v>361</v>
       </c>
@@ -1538,7 +1539,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="40" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A40" s="1">
         <v>365</v>
       </c>
@@ -1555,7 +1556,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="41" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A41" s="1">
         <v>369</v>
       </c>
@@ -1572,7 +1573,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="42" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A42" s="1">
         <v>373</v>
       </c>
@@ -1590,7 +1591,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="43" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="43" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A43" s="1">
         <v>400</v>
       </c>
@@ -1607,7 +1608,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="44" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A44" s="1">
         <v>424</v>
       </c>
@@ -1624,7 +1625,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="45" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A45" s="1">
         <v>444</v>
       </c>
@@ -1641,7 +1642,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="46" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A46" s="1">
         <v>476</v>
       </c>
@@ -1658,7 +1659,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="47" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="47" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A47" s="2">
         <v>483.5</v>
       </c>
@@ -1675,7 +1676,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="48" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A48" s="1">
         <v>499.5</v>
       </c>
@@ -1692,7 +1693,7 @@
         <v>2</v>
       </c>
     </row>
-    <row r="49" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="49" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A49" s="1">
         <v>515</v>
       </c>
@@ -1709,7 +1710,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="50" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="50" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A50" s="1">
         <v>519</v>
       </c>
@@ -1726,7 +1727,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="51" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="51" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A51" s="1">
         <v>523</v>
       </c>
@@ -1743,7 +1744,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="52" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="52" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A52" s="1">
         <v>531</v>
       </c>
@@ -1760,7 +1761,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="53" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="53" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A53" s="1">
         <v>535</v>
       </c>
@@ -1777,7 +1778,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="54" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="54" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A54" s="1">
         <v>539</v>
       </c>
@@ -1794,7 +1795,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="55" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="55" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A55" s="1">
         <v>548</v>
       </c>
@@ -1811,7 +1812,7 @@
         <v>5</v>
       </c>
     </row>
-    <row r="56" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A56" s="1">
         <v>556</v>
       </c>
@@ -1828,7 +1829,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="57" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A57" s="1">
         <v>564</v>
       </c>
@@ -1845,7 +1846,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="58" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A58" s="1">
         <v>572</v>
       </c>
@@ -1862,7 +1863,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="59" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A59" s="1">
         <v>580</v>
       </c>
@@ -1879,7 +1880,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="60" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A60" s="1">
         <v>588</v>
       </c>
@@ -1896,7 +1897,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="61" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A61" s="1">
         <v>596</v>
       </c>
@@ -1913,7 +1914,7 @@
         <v>10</v>
       </c>
     </row>
-    <row r="62" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="62" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A62" s="1">
         <v>635.5</v>
       </c>
@@ -1930,7 +1931,7 @@
         <v>11</v>
       </c>
     </row>
-    <row r="63" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="63" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A63" s="1">
         <v>651.5</v>
       </c>
@@ -1947,7 +1948,7 @@
         <v>12</v>
       </c>
     </row>
-    <row r="64" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="64" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A64" s="1">
         <v>684</v>
       </c>
@@ -1964,7 +1965,7 @@
         <v>15</v>
       </c>
     </row>
-    <row r="65" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A65" s="1">
         <v>700</v>
       </c>
@@ -1981,7 +1982,7 @@
         <v>16</v>
       </c>
     </row>
-    <row r="66" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A66" s="1">
         <v>717</v>
       </c>
@@ -1998,7 +1999,7 @@
         <v>17</v>
       </c>
     </row>
-    <row r="67" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A67" s="1">
         <v>733</v>
       </c>
@@ -2015,7 +2016,7 @@
         <v>18</v>
       </c>
     </row>
-    <row r="68" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A68" s="1">
         <v>747</v>
       </c>
@@ -2032,7 +2033,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="69" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="69" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A69" s="1">
         <v>751</v>
       </c>
@@ -2049,7 +2050,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="70" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="70" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A70" s="1">
         <v>755</v>
       </c>
@@ -2066,7 +2067,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="71" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A71" s="1">
         <v>763</v>
       </c>
@@ -2083,7 +2084,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="72" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="72" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A72" s="1">
         <v>767</v>
       </c>
@@ -2100,9 +2101,9 @@
         <v>21</v>
       </c>
     </row>
-    <row r="73" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A73" s="1">
-        <v>781</v>
+        <v>771</v>
       </c>
       <c r="B73" s="1">
         <v>777</v>
@@ -2117,7 +2118,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="74" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A74" s="1">
         <v>777</v>
       </c>
@@ -2134,7 +2135,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="75" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A75" s="1">
         <v>781</v>
       </c>
@@ -2151,7 +2152,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="76" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="76" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A76" s="1">
         <v>785</v>
       </c>
@@ -2168,7 +2169,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="77" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A77" s="1">
         <v>789</v>
       </c>
@@ -2185,7 +2186,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="78" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A78" s="1">
         <v>796</v>
       </c>
@@ -2202,7 +2203,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="79" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A79" s="1">
         <v>804</v>
       </c>
@@ -2219,7 +2220,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="80" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="80" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A80" s="1">
         <v>812</v>
       </c>
@@ -2236,7 +2237,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="81" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A81" s="1">
         <v>820</v>
       </c>
@@ -2253,7 +2254,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="82" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="82" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A82" s="1">
         <v>828</v>
       </c>
@@ -2270,7 +2271,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="83" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="83" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A83" s="1">
         <v>836</v>
       </c>
@@ -2287,7 +2288,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="84" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="84" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A84" s="1">
         <v>844</v>
       </c>
@@ -2304,7 +2305,7 @@
         <v>29</v>
       </c>
     </row>
-    <row r="85" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="85" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A85" s="1">
         <v>852</v>
       </c>
@@ -2321,7 +2322,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="86" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="86" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A86" s="1">
         <v>861</v>
       </c>
@@ -2338,7 +2339,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="87" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="87" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A87" s="1">
         <v>865</v>
       </c>
@@ -2355,7 +2356,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="88" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="88" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A88" s="1">
         <v>869</v>
       </c>
@@ -2372,7 +2373,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="89" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="89" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A89" s="1">
         <v>873</v>
       </c>
@@ -2389,7 +2390,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="90" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="90" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A90" s="1">
         <v>900</v>
       </c>
@@ -2406,7 +2407,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="91" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A91" s="1">
         <v>924</v>
       </c>
@@ -2423,7 +2424,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="92" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A92" s="1">
         <v>944</v>
       </c>
@@ -2440,7 +2441,7 @@
         <v>37</v>
       </c>
     </row>
-    <row r="93" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A93" s="1">
         <v>976</v>
       </c>
@@ -2457,7 +2458,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="94" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="94" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A94" s="3">
         <v>984</v>
       </c>
@@ -2474,7 +2475,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="95" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A95" s="1">
         <v>992</v>
       </c>
@@ -2491,7 +2492,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="96" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A96" s="1">
         <v>1000</v>
       </c>
@@ -2508,7 +2509,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="97" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A97" s="1">
         <v>1008</v>
       </c>
@@ -2525,7 +2526,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="98" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A98" s="1">
         <v>1016</v>
       </c>
@@ -2542,7 +2543,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="99" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="99" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A99" s="1">
         <v>1024</v>
       </c>
@@ -2559,7 +2560,7 @@
         <v>44</v>
       </c>
     </row>
-    <row r="100" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A100" s="1">
         <v>1031.5</v>
       </c>
@@ -2576,7 +2577,7 @@
         <v>45</v>
       </c>
     </row>
-    <row r="101" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A101" s="1">
         <v>1047.5</v>
       </c>
@@ -2593,7 +2594,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="102" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A102" s="1">
         <v>1083.5</v>
       </c>
@@ -2610,7 +2611,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="103" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A103" s="1">
         <v>1120</v>
       </c>
@@ -2627,7 +2628,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="104" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="104" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A104" s="1">
         <v>1145</v>
       </c>
@@ -2644,7 +2645,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="105" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A105" s="1">
         <v>1164</v>
       </c>
@@ -2661,7 +2662,7 @@
         <v>57</v>
       </c>
     </row>
-    <row r="106" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A106" s="1">
         <v>1203.5</v>
       </c>
@@ -2678,7 +2679,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="107" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A107" s="1">
         <v>1220</v>
       </c>
@@ -2695,7 +2696,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="108" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A108" s="1">
         <v>1236</v>
       </c>
@@ -2712,7 +2713,7 @@
         <v>59</v>
       </c>
     </row>
-    <row r="109" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="109" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A109" s="1">
         <v>1252</v>
       </c>
@@ -2729,7 +2730,7 @@
         <v>60</v>
       </c>
     </row>
-    <row r="110" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A110" s="1">
         <v>1285.5</v>
       </c>
@@ -2747,7 +2748,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="111" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="111" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A111" s="1">
         <v>1304</v>
       </c>
@@ -2765,7 +2766,7 @@
         <v>65</v>
       </c>
     </row>
-    <row r="112" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="112" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A112" s="1">
         <v>1325</v>
       </c>
@@ -2783,7 +2784,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="113" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="113" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A113" s="1">
         <v>1332</v>
       </c>
@@ -2801,7 +2802,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="114" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="114" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A114" s="1">
         <v>1340</v>
       </c>
@@ -2818,7 +2819,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="115" spans="1:5" ht="17.25" thickBot="1" x14ac:dyDescent="0.3">
+    <row r="115" spans="1:5" ht="17.5" thickBot="1" x14ac:dyDescent="0.45">
       <c r="A115" s="4">
         <v>1347.5</v>
       </c>
@@ -2835,7 +2836,7 @@
         <v>70</v>
       </c>
     </row>
-    <row r="116" spans="1:5" ht="17.25" thickTop="1" x14ac:dyDescent="0.25">
+    <row r="116" spans="1:5" ht="17.5" thickTop="1" x14ac:dyDescent="0.4">
       <c r="A116" s="1">
         <v>1403.5</v>
       </c>
@@ -2852,7 +2853,7 @@
         <v>73</v>
       </c>
     </row>
-    <row r="117" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="117" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A117" s="1">
         <v>1419</v>
       </c>
@@ -2869,7 +2870,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="118" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="118" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A118" s="1">
         <v>1423</v>
       </c>
@@ -2886,7 +2887,7 @@
         <v>74</v>
       </c>
     </row>
-    <row r="119" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="119" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A119" s="1">
         <v>1427</v>
       </c>
@@ -2903,7 +2904,7 @@
         <v>75</v>
       </c>
     </row>
-    <row r="120" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="120" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A120" s="1">
         <v>1435</v>
       </c>
@@ -2920,7 +2921,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="121" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="121" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A121" s="1">
         <v>1443</v>
       </c>
@@ -2937,7 +2938,7 @@
         <v>76</v>
       </c>
     </row>
-    <row r="122" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="122" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A122" s="1">
         <v>1451</v>
       </c>
@@ -2954,7 +2955,7 @@
         <v>77</v>
       </c>
     </row>
-    <row r="123" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="123" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A123" s="1">
         <v>1468</v>
       </c>
@@ -2971,7 +2972,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="124" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="124" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A124" s="1">
         <v>1476</v>
       </c>
@@ -2988,7 +2989,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="125" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="125" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A125" s="1">
         <v>1484</v>
       </c>
@@ -3005,7 +3006,7 @@
         <v>79</v>
       </c>
     </row>
-    <row r="126" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="126" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A126" s="1">
         <v>1492</v>
       </c>
@@ -3022,7 +3023,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="127" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="127" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A127" s="1">
         <v>1500</v>
       </c>
@@ -3039,7 +3040,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="128" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="128" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A128" s="1">
         <v>1508</v>
       </c>
@@ -3056,7 +3057,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="129" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="129" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A129" s="1">
         <v>1516</v>
       </c>
@@ -3073,7 +3074,7 @@
         <v>82</v>
       </c>
     </row>
-    <row r="130" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="130" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A130" s="1">
         <v>1524</v>
       </c>
@@ -3090,7 +3091,7 @@
         <v>83</v>
       </c>
     </row>
-    <row r="131" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="131" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A131" s="1">
         <v>1563.5</v>
       </c>
@@ -3107,7 +3108,7 @@
         <v>84</v>
       </c>
     </row>
-    <row r="132" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="132" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A132" s="1">
         <v>1571.5</v>
       </c>
@@ -3124,7 +3125,7 @@
         <v>85</v>
       </c>
     </row>
-    <row r="133" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="133" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A133" s="1">
         <v>1611</v>
       </c>
@@ -3141,7 +3142,7 @@
         <v>86</v>
       </c>
     </row>
-    <row r="134" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="134" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A134" s="1">
         <v>1628</v>
       </c>
@@ -3158,7 +3159,7 @@
         <v>87</v>
       </c>
     </row>
-    <row r="135" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="135" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A135" s="1">
         <v>1645</v>
       </c>
@@ -3175,7 +3176,7 @@
         <v>88</v>
       </c>
     </row>
-    <row r="136" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="136" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A136" s="1">
         <v>1661</v>
       </c>
@@ -3192,7 +3193,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="137" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="137" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A137" s="1">
         <v>1675</v>
       </c>
@@ -3209,7 +3210,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="138" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="138" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A138" s="1">
         <v>1679</v>
       </c>
@@ -3226,7 +3227,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="139" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="139" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A139" s="1">
         <v>1683</v>
       </c>
@@ -3243,7 +3244,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="140" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="140" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A140" s="1">
         <v>1691</v>
       </c>
@@ -3260,7 +3261,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="141" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="141" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A141" s="1">
         <v>1695</v>
       </c>
@@ -3277,7 +3278,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="142" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="142" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A142" s="1">
         <v>1699</v>
       </c>
@@ -3294,7 +3295,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="143" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="143" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A143" s="1">
         <v>1705</v>
       </c>
@@ -3311,7 +3312,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="144" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="144" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A144" s="1">
         <v>1709</v>
       </c>
@@ -3328,7 +3329,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="145" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="145" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A145" s="1">
         <v>1713</v>
       </c>
@@ -3345,7 +3346,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="146" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="146" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A146" s="1">
         <v>1717</v>
       </c>
@@ -3362,7 +3363,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="147" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="147" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A147" s="1">
         <v>1724</v>
       </c>
@@ -3379,7 +3380,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="148" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="148" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A148" s="1">
         <v>1732</v>
       </c>
@@ -3396,7 +3397,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="149" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="149" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A149" s="1">
         <v>1740</v>
       </c>
@@ -3413,7 +3414,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="150" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="150" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A150" s="1">
         <v>1748</v>
       </c>
@@ -3430,7 +3431,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="151" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="151" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A151" s="1">
         <v>1756</v>
       </c>
@@ -3447,7 +3448,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="152" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="152" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A152" s="1">
         <v>1764</v>
       </c>
@@ -3464,7 +3465,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="153" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="153" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A153" s="1">
         <v>1772</v>
       </c>
@@ -3481,7 +3482,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="154" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="154" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A154" s="1">
         <v>1780</v>
       </c>
@@ -3498,7 +3499,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="155" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="155" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A155" s="1">
         <v>1789</v>
       </c>
@@ -3515,7 +3516,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="156" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="156" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A156" s="1">
         <v>1793</v>
       </c>
@@ -3532,7 +3533,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="157" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="157" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A157" s="1">
         <v>1797</v>
       </c>
@@ -3549,7 +3550,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="158" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="158" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A158" s="1">
         <v>1801</v>
       </c>
@@ -3567,7 +3568,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="159" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="159" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A159" s="1">
         <v>1826</v>
       </c>
@@ -3584,7 +3585,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="160" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="160" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A160" s="1">
         <v>1852</v>
       </c>
@@ -3601,7 +3602,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="161" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="161" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A161" s="1">
         <v>1872</v>
       </c>
@@ -3618,7 +3619,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="162" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="162" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A162" s="1">
         <v>1900</v>
       </c>
@@ -3635,7 +3636,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="163" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="163" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A163" s="1">
         <v>1908</v>
       </c>
@@ -3652,7 +3653,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="164" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="164" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A164" s="1">
         <v>1916</v>
       </c>
@@ -3669,7 +3670,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="165" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="165" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A165" s="1">
         <v>1924</v>
       </c>
@@ -3686,7 +3687,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="166" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="166" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A166" s="1">
         <v>1932</v>
       </c>
@@ -3703,7 +3704,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="167" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="167" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A167" s="1">
         <v>1944</v>
       </c>
@@ -3720,7 +3721,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="168" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="168" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A168" s="1">
         <v>1964</v>
       </c>
@@ -3737,7 +3738,7 @@
         <v>110</v>
       </c>
     </row>
-    <row r="169" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="169" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A169" s="1">
         <v>1988</v>
       </c>
@@ -3754,7 +3755,7 @@
         <v>113</v>
       </c>
     </row>
-    <row r="170" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="170" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A170" s="1">
         <v>2003.5</v>
       </c>
@@ -3771,7 +3772,7 @@
         <v>114</v>
       </c>
     </row>
-    <row r="171" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="171" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A171" s="1">
         <v>2039</v>
       </c>
@@ -3788,7 +3789,7 @@
         <v>115</v>
       </c>
     </row>
-    <row r="172" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="172" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A172" s="1">
         <v>2056</v>
       </c>
@@ -3805,7 +3806,7 @@
         <v>116</v>
       </c>
     </row>
-    <row r="173" spans="1:5" x14ac:dyDescent="0.25">
+    <row r="173" spans="1:5" x14ac:dyDescent="0.4">
       <c r="A173" s="1">
         <v>2072</v>
       </c>
